--- a/assets/excel/Report SPD.xlsx
+++ b/assets/excel/Report SPD.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Report SPD</t>
   </si>
@@ -23,13 +23,13 @@
     <t>Dari :</t>
   </si>
   <si>
-    <t>2019-07-26</t>
+    <t>2019-09-29</t>
   </si>
   <si>
     <t>Sampai :</t>
   </si>
   <si>
-    <t>2019-07-31</t>
+    <t>2019-10-05</t>
   </si>
   <si>
     <t>No. Urut</t>
@@ -71,25 +71,58 @@
     <t>KET</t>
   </si>
   <si>
-    <t>SPD-003/PPK.4/07/2019</t>
-  </si>
-  <si>
-    <t>Abdul Malik, M.Ag / DE.1-PL.01.08/03/2018</t>
-  </si>
-  <si>
-    <t>Bandung</t>
-  </si>
-  <si>
-    <t>2019-07-29</t>
-  </si>
-  <si>
-    <t>ascas</t>
-  </si>
-  <si>
-    <t>Abdullah Al Mahdi / DE.1-PL.01.08/23/2018</t>
-  </si>
-  <si>
-    <t>Ardian Fauzi Rahman, S.Sos. / 199212072018011002</t>
+    <t>SPD-012/PPK.4/09/2019</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>Raditya Ndaru Aji / 199605042019021004</t>
+  </si>
+  <si>
+    <t>Bandar Lampung</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penyusunan Dokumen Kepegawaian </t>
+  </si>
+  <si>
+    <t>Aditya Adzhar / 199111142017010310009</t>
+  </si>
+  <si>
+    <t>Firas Agyati Gumilar / 199108052017010321080</t>
+  </si>
+  <si>
+    <t>Mirza Dwiky Hermastuti, S.IP. / 199212152018012001</t>
+  </si>
+  <si>
+    <t>Suniah Setiyawati, S.Kom., M.M. / 196804281996032001</t>
+  </si>
+  <si>
+    <t>Dewi Anggraini Rubiyanti, S.Hum. / 198412182014032001</t>
+  </si>
+  <si>
+    <t>Weti Deswiyati, S.Sos., M.Si. / 197312201999032001</t>
+  </si>
+  <si>
+    <t>Isheri, S.Sos., M.T. / 196908021995031001</t>
+  </si>
+  <si>
+    <t>Heri Setiawan Suhandi / 199310272019021003</t>
+  </si>
+  <si>
+    <t>Trio Prakarsa / 198706272017010311042</t>
+  </si>
+  <si>
+    <t>Deni / 198609032017010311049</t>
+  </si>
+  <si>
+    <t>Budi Kurniawan / 199101032017010311058</t>
+  </si>
+  <si>
+    <t>Melisa Suvia Arfiyanti / 199010182017010321072</t>
   </si>
 </sst>
 </file>
@@ -428,7 +461,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,28 +539,28 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6"/>
     </row>
@@ -539,28 +572,28 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M7"/>
     </row>
@@ -572,30 +605,360 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
